--- a/Results.xlsx
+++ b/Results.xlsx
@@ -432,7 +432,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,7 +494,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.31802104279309e-06</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>6.34864375892577</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>-1.69889727685646e-06</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>-7.82851865175457</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.000222388359832818</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1057.59008402095</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1.67156856187751e-06</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>7.95532909968744</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.000231374756624682</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2038.39309588292</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>-1.01202052956844e-06</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>-8.93039299948133</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2.76084247607497e-07</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2.44818258734443</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1.16899232556872e-07</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>1.27059178656855</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1.83252930795797e-07</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>1.94799331459379</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>3.36818891729114e-07</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>3.59253724469407</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2808,7 +2808,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3056,12 +3056,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-3.48379580108469e-05</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-370.8319472873</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3309,7 +3309,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.98039650706417e-05</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3329,7 +3329,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>429.424281085316</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -442,12 +442,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.390948270152919</t>
+          <t>0.457468938920785</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.969075257228835</t>
+          <t>0.970043657052422</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>7.287115711664e-05</t>
+          <t>6.90106741860501e-05</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -477,7 +477,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>337.626645152816</t>
+          <t>319.740255638808</t>
         </is>
       </c>
     </row>
@@ -504,12 +504,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.214696324005989</t>
+          <t>0.01935430282057</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.998023311737106</t>
+          <t>0.997778894436006</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -529,7 +529,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.000115041899157824</t>
+          <t>0.000111603409726059</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -539,7 +539,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>526.385713786539</t>
+          <t>510.652561542553</t>
         </is>
       </c>
     </row>
@@ -566,12 +566,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.00325482953915561</t>
+          <t>0.0980070444692341</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.986470269761032</t>
+          <t>0.983797895370963</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.000108357379174503</t>
+          <t>0.000105044245361767</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>510.623313621927</t>
+          <t>495.01050184279</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.545746967802989</t>
+          <t>0.307833817193853</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.996796488078503</t>
+          <t>0.993772294862254</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.000453074605109446</t>
+          <t>0.000543815210860189</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2048.62213446287</t>
+          <t>2458.91485742543</t>
         </is>
       </c>
     </row>
@@ -690,12 +690,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.795403367438573</t>
+          <t>0.842136885478279</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.99555820459592</t>
+          <t>0.9971304774583</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.000180367146181181</t>
+          <t>0.000177646849761395</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>843.468922401675</t>
+          <t>830.747728224189</t>
         </is>
       </c>
     </row>
@@ -752,12 +752,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.102313969204452</t>
+          <t>0.174895871268657</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.99483367595527</t>
+          <t>0.989416746439405</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -777,7 +777,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.000521359205890877</t>
+          <t>0.000625731089725636</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2411.8076864512</t>
+          <t>2894.63202107079</t>
         </is>
       </c>
     </row>
@@ -814,12 +814,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.336457642909836</t>
+          <t>0.251310395873227</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.9994338254463</t>
+          <t>0.998998515806811</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.000133479968820905</t>
+          <t>0.000129777566964237</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>616.517279989995</t>
+          <t>599.416626294416</t>
         </is>
       </c>
     </row>
@@ -876,12 +876,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.0407308529885877</t>
+          <t>0.0028437517390715</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.880314840887578</t>
+          <t>0.87825840691285</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8.84431990600094e-05</t>
+          <t>8.46655005210522e-05</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>401.496746452819</t>
+          <t>384.347506165369</t>
         </is>
       </c>
     </row>
@@ -938,17 +938,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.602034445845926</t>
+          <t>0.639778895349795</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.998654067398186</t>
+          <t>0.998214827339759</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.000108404935926915</t>
+          <t>0.000103590627488608</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>517.48180214072</t>
+          <t>494.500219379617</t>
         </is>
       </c>
     </row>
@@ -1000,12 +1000,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.97856896074318</t>
+          <t>0.97598974148959</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.998930262271245</t>
+          <t>0.999389261199991</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.00018753106758396</t>
+          <t>0.000190992044571825</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>903.29964633842</t>
+          <t>919.970480293568</t>
         </is>
       </c>
     </row>
@@ -1062,12 +1062,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.0873367854400416</t>
+          <t>0.56830359739776</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.994823022765782</t>
+          <t>0.994171242267617</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3.25249865928501e-05</t>
+          <t>2.9995545043379e-05</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>149.172598509448</t>
+          <t>137.571567786953</t>
         </is>
       </c>
     </row>
@@ -1124,12 +1124,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.920655197267937</t>
+          <t>0.92303813317147</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.945647083133358</t>
+          <t>0.969902736117928</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.000604236185957599</t>
+          <t>0.000705183707082815</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2784.32034489262</t>
+          <t>3249.48652223761</t>
         </is>
       </c>
     </row>
@@ -1186,12 +1186,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.289338517674072</t>
+          <t>0.235086580960413</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.802530222660519</t>
+          <t>0.791656029003398</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.000222388359832818</t>
+          <t>0.000227286312765886</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>1057.59008402095</t>
+          <t>1080.88278898945</t>
         </is>
       </c>
     </row>
@@ -1248,12 +1248,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.113324435569509</t>
+          <t>0.0503863013198322</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.994836310785313</t>
+          <t>0.995784849159171</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>8.07611882903645e-05</t>
+          <t>7.66811239876524e-05</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>381.741984810895</t>
+          <t>362.456336864835</t>
         </is>
       </c>
     </row>
@@ -1310,12 +1310,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.960864880759567</t>
+          <t>0.964528354814866</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.959810296641277</t>
+          <t>0.958803574126594</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>6.22174595524649e-05</t>
+          <t>5.8969161426831e-05</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>296.105333502091</t>
+          <t>280.646033062574</t>
         </is>
       </c>
     </row>
@@ -1372,12 +1372,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.278346950574045</t>
+          <t>0.228163792757875</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.996715861671624</t>
+          <t>0.997060671056783</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>5.65463357126289e-05</t>
+          <t>5.32222528192836e-05</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>269.522454540674</t>
+          <t>253.678545837833</t>
         </is>
       </c>
     </row>
@@ -1434,12 +1434,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.571956621666621</t>
+          <t>0.58853650409088</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.996912209243966</t>
+          <t>0.997385416954585</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.000143157945250405</t>
+          <t>0.00013717660647296</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>1242.65677531599</t>
+          <t>1190.73684069936</t>
         </is>
       </c>
     </row>
@@ -1496,12 +1496,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.180049017681127</t>
+          <t>0.167800061728358</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.995343161299899</t>
+          <t>0.997435392438616</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.000134719890534251</t>
+          <t>0.000130790306754695</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>1175.23165947335</t>
+          <t>1140.95185678071</t>
         </is>
       </c>
     </row>
@@ -1558,12 +1558,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.546427699714732</t>
+          <t>0.494177839240323</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.989054058769103</t>
+          <t>0.991290560351753</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.000163004468992044</t>
+          <t>0.000160154189781783</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>1410.23642357404</t>
+          <t>1385.57717598089</t>
         </is>
       </c>
     </row>
@@ -1620,12 +1620,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.061198123301666</t>
+          <t>0.193807106958561</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.972282659321044</t>
+          <t>0.975570858770723</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.000336569683721175</t>
+          <t>0.000361864724763259</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2945.76557422652</t>
+          <t>3167.15586783996</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.69726135211646</t>
+          <t>0.669662318487841</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.991190479155585</t>
+          <t>0.989242864568849</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.000216697079205562</t>
+          <t>0.000211901691323501</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>1896.60218027243</t>
+          <t>1854.63141100451</t>
         </is>
       </c>
     </row>
@@ -1744,12 +1744,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.420174078658299</t>
+          <t>0.360882470306656</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.45865608816187</t>
+          <t>0.473808197343776</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.000231374756624682</t>
+          <t>0.000240029533580422</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2038.39309588292</t>
+          <t>2114.64098848083</t>
         </is>
       </c>
     </row>
@@ -1806,12 +1806,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.94554722199764</t>
+          <t>0.949067633248084</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.986835465278486</t>
+          <t>0.98093947986668</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.000259898518813024</t>
+          <t>0.000264307934132768</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2293.42769753214</t>
+          <t>2332.33778932647</t>
         </is>
       </c>
     </row>
@@ -1868,12 +1868,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.323459540163899</t>
+          <t>0.329764223543708</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.991181290903702</t>
+          <t>0.9887393265265</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.000178036223773398</t>
+          <t>0.000174515924984867</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>1555.66628043405</t>
+          <t>1524.90619124377</t>
         </is>
       </c>
     </row>
@@ -1930,12 +1930,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.633583252891076</t>
+          <t>0.405061075321775</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.997409624261152</t>
+          <t>0.995984055827109</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.000140830544766079</t>
+          <t>0.000135648872390499</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1965,7 +1965,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>1228.53807387779</t>
+          <t>1183.33565127596</t>
         </is>
       </c>
     </row>
@@ -1992,17 +1992,17 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.0818069836692521</t>
+          <t>0.16027135889666</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.98949869647759</t>
+          <t>0.98500042370491</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.000228820615889019</t>
+          <t>0.000234111905775322</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1982.94115164497</t>
+          <t>2028.79504649648</t>
         </is>
       </c>
     </row>
@@ -2054,12 +2054,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.991870550103821</t>
+          <t>0.988783953247746</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.998546575693178</t>
+          <t>0.997499092229412</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.000154588686272439</t>
+          <t>0.000151580542445289</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1370.81826729457</t>
+          <t>1344.14349174445</t>
         </is>
       </c>
     </row>
@@ -2116,12 +2116,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.000212582602106411</t>
+          <t>0.0147022638535078</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.99671110266826</t>
+          <t>0.999785311556484</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.00039023295297057</t>
+          <t>0.000434712049866024</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>3454.77916060281</t>
+          <t>3848.5579429099</t>
         </is>
       </c>
     </row>
@@ -2178,12 +2178,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.192175690806272</t>
+          <t>0.239971046755951</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.927634016371317</t>
+          <t>0.919921067324161</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.000217488528080514</t>
+          <t>0.000218108334838409</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2376.43624954791</t>
+          <t>2383.20870444554</t>
         </is>
       </c>
     </row>
@@ -2240,12 +2240,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.0566784405475306</t>
+          <t>0.143961113456213</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.975065921006067</t>
+          <t>0.972369894923068</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0.000106826215351118</t>
+          <t>0.000103831601852009</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>1154.95376379292</t>
+          <t>1122.57744005504</t>
         </is>
       </c>
     </row>
@@ -2302,17 +2302,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.000683973491659958</t>
+          <t>0.000467175424951053</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.998884468504422</t>
+          <t>0.998589513122601</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0.000236756115941345</t>
+          <t>0.000239718648444778</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2576.73992296995</t>
+          <t>2608.98270472171</t>
         </is>
       </c>
     </row>
@@ -2364,12 +2364,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.996123445024709</t>
+          <t>0.992945165807486</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.996033012316557</t>
+          <t>0.994094736928039</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.000139091652804015</t>
+          <t>0.000135350141947746</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>1511.80386532518</t>
+          <t>1471.13693484709</t>
         </is>
       </c>
     </row>
@@ -2426,12 +2426,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.541512608264856</t>
+          <t>0.082756174636248</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.999518131908949</t>
+          <t>0.999693825634036</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>0.000175260171207698</t>
+          <t>0.000175184995662467</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>1875.64837307848</t>
+          <t>1874.84383837937</t>
         </is>
       </c>
     </row>
@@ -2488,12 +2488,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.183885955125978</t>
+          <t>0.486712418390757</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.991346883333083</t>
+          <t>0.993037612824642</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0.000198323777583235</t>
+          <t>0.000202154631642531</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2108.19762161199</t>
+          <t>2148.91990673064</t>
         </is>
       </c>
     </row>
@@ -2550,12 +2550,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.837818642747906</t>
+          <t>0.906374249147868</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.993560861644093</t>
+          <t>0.990954558233944</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0.000304778149185363</t>
+          <t>0.000315419521375083</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>3272.73214820437</t>
+          <t>3387.00005408735</t>
         </is>
       </c>
     </row>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.99812516431115</t>
+          <t>0.352052672958662</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.994094502712188</t>
+          <t>0.998827771004163</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0.000426526105336678</t>
+          <t>0.000500549100546089</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>4534.00662181732</t>
+          <t>5320.87698273297</t>
         </is>
       </c>
     </row>
@@ -2674,12 +2674,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.177049471361414</t>
+          <t>0.0525587938156666</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.998912466755785</t>
+          <t>0.999867542593104</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2699,7 +2699,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>0.00027156022402767</t>
+          <t>0.000280729241626189</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2906.25924236204</t>
+          <t>3004.38680222281</t>
         </is>
       </c>
     </row>
@@ -2736,12 +2736,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.922975828998754</t>
+          <t>0.40508146938625</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.993960792821614</t>
+          <t>0.988861913266071</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>0.000313181663171078</t>
+          <t>0.000332272345440787</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>3340.42067391578</t>
+          <t>3544.04341825907</t>
         </is>
       </c>
     </row>
@@ -2798,12 +2798,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.65254204234545</t>
+          <t>0.524028486315866</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.999001863713233</t>
+          <t>0.999998369469974</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2823,7 +2823,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>0.000307482424265792</t>
+          <t>0.000341248213377073</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>3290.70150308644</t>
+          <t>3652.06567941851</t>
         </is>
       </c>
     </row>
@@ -2860,12 +2860,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.651882783104129</t>
+          <t>0.711238460281365</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.998742371544628</t>
+          <t>0.99976437474997</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0.000246213201551332</t>
+          <t>0.000257788698713706</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2617.26602954678</t>
+          <t>2740.31449042259</t>
         </is>
       </c>
     </row>
@@ -2922,12 +2922,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.268478748316056</t>
+          <t>0.358601729954345</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.999129346705096</t>
+          <t>0.998575324486873</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>0.000144020755804504</t>
+          <t>0.000143296472125684</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>1553.76504358178</t>
+          <t>1545.9511235985</t>
         </is>
       </c>
     </row>
@@ -2984,12 +2984,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.000503750719546296</t>
+          <t>0.0904672935168706</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.999672262547549</t>
+          <t>0.998742609829828</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>0.000219263293396281</t>
+          <t>0.000227090784114275</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2374.98982981463</t>
+          <t>2459.77470447491</t>
         </is>
       </c>
     </row>
@@ -3046,12 +3046,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.703707998135616</t>
+          <t>0.639747920730119</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.0559118441730216</t>
+          <t>0.0519558094475671</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>-3.48379580108469e-05</t>
+          <t>-3.28481823612768e-05</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>-370.8319472873</t>
+          <t>-349.651820180964</t>
         </is>
       </c>
     </row>
@@ -3108,17 +3108,17 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.765715517246751</t>
+          <t>0.0895669459420237</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.999682723721594</t>
+          <t>0.999997804165067</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>LIN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3133,7 +3133,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>0.000229845795608298</t>
+          <t>0.000239182663597714</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2459.82809226366</t>
+          <t>2559.75200043583</t>
         </is>
       </c>
     </row>
@@ -3170,12 +3170,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.147877732823643</t>
+          <t>0.391726885749669</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.99589352940062</t>
+          <t>0.997721915462172</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>0.000207314273059365</t>
+          <t>0.000217508061695672</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3205,7 +3205,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2236.6058886155</t>
+          <t>2346.58137344253</t>
         </is>
       </c>
     </row>
@@ -3232,17 +3232,17 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.0226310935225446</t>
+          <t>0.0529020907746822</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.999967068109384</t>
+          <t>0.999681926639637</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3257,7 +3257,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>0.000157276430837267</t>
+          <t>0.000154669477935408</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>1703.56797037141</t>
+          <t>1675.3302907634</t>
         </is>
       </c>
     </row>
@@ -3294,12 +3294,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.644147488507835</t>
+          <t>0.505143503958292</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.0542325174131418</t>
+          <t>0.0481788392294712</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>3.98039650706417e-05</t>
+          <t>3.80912108840266e-05</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3329,7 +3329,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>429.424281085316</t>
+          <t>410.946266798104</t>
         </is>
       </c>
     </row>
@@ -3356,12 +3356,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.605622506510219</t>
+          <t>0.73235880149322</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.999667000358746</t>
+          <t>0.999562724209145</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>0.00015560425308114</t>
+          <t>0.000151807208536854</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>1680.97407352519</t>
+          <t>1639.95505695861</t>
         </is>
       </c>
     </row>
